--- a/biology/Microbiologie/Methanosarcina_acetivorans/Methanosarcina_acetivorans.xlsx
+++ b/biology/Microbiologie/Methanosarcina_acetivorans/Methanosarcina_acetivorans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Methanosarcina acetivorans est une espèce d'archées méthanogènes du genre Methanosarcina, caractérisé par la faculté à utiliser les trois modes de la méthanogenèse[2] : elles produisent le méthane CH4 par réduction du dioxyde de carbone CO2 à l'aide de dihydrogène H2, ou par méthanogenèse acétotrophe à partir de l'acétate CH3COO–, ou encore en métabolisant des composés organiques à un atome de carbone tels que le méthanol CH3OH, le méthanethiol CH3SH et la méthylamine CH3NH2.
-M. acetivorans possède le plus grand génome archéen connu en 2011[3], avec 5 751 492 bp[4]. Comme les autres espèces du genre Methanosarcina, cette archée est capable de différenciation cellulaire[2],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Methanosarcina acetivorans est une espèce d'archées méthanogènes du genre Methanosarcina, caractérisé par la faculté à utiliser les trois modes de la méthanogenèse : elles produisent le méthane CH4 par réduction du dioxyde de carbone CO2 à l'aide de dihydrogène H2, ou par méthanogenèse acétotrophe à partir de l'acétate CH3COO–, ou encore en métabolisant des composés organiques à un atome de carbone tels que le méthanol CH3OH, le méthanethiol CH3SH et la méthylamine CH3NH2.
+M. acetivorans possède le plus grand génome archéen connu en 2011, avec 5 751 492 bp. Comme les autres espèces du genre Methanosarcina, cette archée est capable de différenciation cellulaire,.
 </t>
         </is>
       </c>
